--- a/500all/speech_level/speeches_CHRG-114hhrg98569.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98569.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412271</t>
   </si>
   <si>
-    <t>Mike Coffman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Coffman. Good afternoon, the hearing will come to order. I want to welcome everyone to today's hearing entitled An Examination of Waste and Abuse Associated With VA's Management of Land-Use Agreements. Before we begin, I would like to ask unanimous consent that the Honorable Tim Walz from the State of Minnesota be allowed to join us on today's hearing. Where is Tim? He is not here. He is not here yet. No objection, I hope.    He is set to be redesignated as a member of this subcommittee tomorrow, so I doubt anyone will have any objection.    Hearing none, so ordered.    The hearing will address serious problems with VA's billing and collection practices regarding its land-use agreements at VA medical centers, which were substantiated by the GAO. These deficiencies continue to result in an extreme loss of income, waste of taxpayer money, and compromised services provided to veterans. The primary focus of the hearing will be on issues occurring at the West Los Angeles VA Medical Center, including land-use agreements, problems faced by homeless veterans in the area, and other issues affecting quality of care. The shortcomings associated with VA's management in West Los Angeles are many. There have been multiple embezzlement investigations involving the facility over the last few years, at least one of which amounted to a guilty plea involving the theft of over $680,000.    One additional such investigation is ongoing and is being addressed by the VA inspector general, and the Department of Justice. The nature of land-use agreements in West Los Angeles also produces cause for concern. For instance, the facility has agreements with university sports teams, hotel laundry facilities and even a rare bird sanctuary. Considering this land was given to the Federal Government specifically to house veterans, VA is violating the terms of the original bequest. Notably, a Federal district court in California ruled in 2013 that many of the facility's non-healthcare related agreements were void because the court stated agreements of that sort that did not provide for sharing of healthcare resources result in lost access to space and opportunities that benefit veterans. On January 27, 2015, the day we informed VA of this hearing, the parties agreed to settle the appeal of the court's decision.    Based on the framework of this settlement, it does not appear that there is any impediment VA faces which would discourage its continued misuse of the property. In the framework, VA states that it will not complete a Master Plan to restructure the West L.A. property until October 15, 2015, which will require vigilant oversight considering past efforts to create such a Master Plan have largely failed. Many similar stories of waste and misuse of property set aside to help veterans, as well as other compromised services that inevitably occur due to facility mismanagement, will be discussed today regarding West Los Angeles, New York City and North Chicago, which were the sites GAO focused on in the audit. We will hear from GAO, as well as from the American Legion, which has raised concerns with problems occurring in West Los Angeles, primarily the growing homeless veteran population that is an unfortunate and unnecessary byproduct of the VA's mismanagement of property entrusted to veterans.    I look forward to hearing from these witnesses as well as from the VA so that we can get to the bottom of this issue and look for solutions to better serve our Nation's veterans. With that, I now recognize Ranking Member Kuster for her opening statement.    [The prepared statement of Chairman Mike Coffman appears in the Appendix]     OPENING STATEMENT OF RANKING MEMBER ANN McLANE KUSTER</t>
   </si>
   <si>
     <t>412557</t>
   </si>
   <si>
-    <t>Ann M. Kuster</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kuster. Thank you, Mr. Chairman. This afternoon the Subcommittee on Oversight and Investigations will be looking into VA practices regarding land-use agreements and a report from the Government Accountability Office from August of last year.    This is my first hearing as ranking member of this subcommittee, one of the most important subcommittees in Congress. And I look forward to working with Chairman Coffman and with all of my colleagues.    Our efforts to identify where problems exist at the VA could not be more important or more timely. But we must also remember that our responsibility is not only to identify problems, but to work to find solutions. This means all of us, the VA, outside agencies, such as the GAO, veterans, including our friends at the VSOs, must work together to ensure the highest quality of care is being delivered to our veterans.    Today's hearing is about an issue we face time and again: How can we ensure that the information and data collected by the VA is, in the words of the GAO, accurate, valid, and complete? How can we ensure that there are processes in place that provide the necessary level of accountability, while ensuring that the job of the VA, namely to care for our veterans, gets done? This can, perhaps, be best summed up in the title of the GAO's testimony, Improved Data Reliability and Monitoring Needed for the Department of Veterans Affairs. The question we must ask in terms of monitoring and accountability is how much management control should be exercised centrally or delegated locally?    We will not arrive at the answers to these questions today, but I am hopeful that the beginning of this discussion will lead us to solutions that we can all agree on. Solutions that ensure the proper level of accountability and management control, while remaining flexible enough not to hinder the VA's ability to accomplish its mission. This will take real leadership on behalf of the VA and all of us here in this room today.    The VA's transition from inpatient services to increased outpatient services has meant that VA's real estate portfolio contains many aging facilities, and far too much underutilized space. This was first pointed out many years ago. In fact, a June 2012 GAO report found that the VA had made progress in this area, though reducing the number of underutilized facilities in part through land-use agreements.    The VA is not alone in facing real challenges in property management. The GAO has included property management on its high-risk list since 2003. The GAO looked at three VA sites: North Chicago, New York City, and West Los Angeles, and found that its review raised questions regarding reliability of data in VA's capital asset inventory system, as well as lack of oversight and communication regarding billing, collecting, and contracting. Far too often at the three sites looked at by GAO, VA improperly paid for services it did not receive, and failed to collect what it was owed. That is why it is crucial to have this discussion this afternoon to learn about the GAO's findings and the steps that the VA has taken to address these problems. I look forward to hearing about future efforts to strengthen the management, oversight, and use of land-use agreements.    Going back to the 2012 GAO report, how much confidence should we have that using land-use agreements is an effective tool in managed underutilized space, and so we can increase the amount of benefits and services being provided to our veterans? If the VA is to provide the highest level of benefits and services to veterans in the most efficient manner, land-use agreements may, indeed, be an important tool in VA's tool chest, but only if the data is reliable and there is real oversight within VA to make sure that VA is properly benefiting from these agreements.    Finally, I look forward to discussing the recent agreement regarding West Los Angeles. As the American Legion points out in testimony today, for far too long the needs of veterans were not always the highest priority when it came to agreements between the VA and non-VA entities. This practice runs counter to the terms of the original deed, as pointed out by our chair. The agreement regarding the parties in Valentini v. McDonald is a way forward, but there are milestones that need to be met, and we will need to make sure that this committee is a full partner in the progress made in meeting those steps.    Thank you Mr. Chair, I yield back.    [The prepared statement of Ranking Member Ann Kuster appears in the Appendix]</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>400285</t>
   </si>
   <si>
-    <t>Tim Murphy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Murphy. Good afternoon, Chairman Coffman and Ranking Member Kuster, and members of the subcommittee. Thank you for the opportunity to discuss the VA's billing and collection practices regarding our land-use agreements. As you mentioned, sir, I am here with Dr. Skye McDougall, who is the Network Director for VISN 22.    The Department of Veterans Affairs owns and leases real property in hundreds of communities across the United States and overseas. And currently, VA manages over 174 million square feet of space, approximately 151 million owned square feet, and 23 million leased square feet of building assets. A very large footprint indeed. Unlike many Federal agencies, VA owns 87 percent of its square footage, which means that real estate plays a very important role in our overall asset management strategy.    To manage these properties, the VA uses land-use authorities that allow VA to enter into various types of agreements for the use of its property in exchange for revenues or in-kind considerations. We at VHA value and appreciate the GAO's recent insights and findings into VA's land-use agreement procedures. We acknowledge the noted deficiencies and recognize that there are many needed improvements to the design, implementation, and oversight of the VA land-use program.    The GAO recently examined our land-use program, specifically our sharing agreements. They looked into three medical centers that Ranking Member Kuster mentioned and made recommendations for improvements at each site.    At VA medical centers in North Chicago and New York, new collaborative processes have been established to improve billing and collection procedures. The GAO also recommended that VHA develop a plan for West Los Angeles Medical Center that identifies steps to be taken, timelines and responsibilities in implementing segregation of duties over the billing and collection processes.    The VA greater Los Angeles asset management office and fiscal service recently collaborated with VISN 22 and the network contracting office to finalize the standard operating procedure for the West Los Angeles Medical Center's billing and collection process. This SOP clearly defines duties related to billing and collections for land-use agreements.    A follow-up audit of the SOP will be conducted by VISN 22 financial quality assurance management staff in April of this year.    In addition, VA is considering other system-wide improvements for land-use agreements. These include establishing a better set of administrative tools for the field to use in managing these complex agreements and processes. The VHA's chief financial officer will conduct recurring independent reviews of our billing and collection processes to ensure a better separation of duties.    And finally, we are developing a standardized implementation and monitoring tool for land-use agreements that will also include reviews of land-use agreements during our normal capital program reviews. We are updating our land-use handbook with feedback from the GAO, and also instituting mandatory training for those who manage land-use agreements. I also might add for leaders who have land-use agreements in their areas will also receive this training. These actions are an example of VHA's commitment to improving the management of our land-use agreements. We are making progress to solidify our policies and taking actions to implement the GAO's recommendations.    I am also pleased to share that Secretary McDonald and attorneys representing homeless veterans in Los Angeles announced an agreement that dedicates the West Los Angeles campus to better serve veterans. This agreement commits the Department to design a plan to help end homelessness among veterans in Los Angeles County. Under this agreement, Secretary McDonald will launch an accelerated process to develop a new long-term Master Plan. The Master Plan will prioritize the provision of bridge housing and permanent supportive housing. It will also describe an exit strategy for third-party land-use agreements that do not comply with the applicable laws and do not fit the Master Plan.    In conclusion, Mr. Chairman, VA has a complex and diverse real estate portfolio. We seek to leverage our portfolio optimally to provide quality care and services to our veterans. We will correct the deficiencies in our oversight and management of our land-use agreements. I thank you for the opportunity to discuss this issue. And at this time my colleague and I prepared to answer any questions you may have. Thank you.    [The prepared statement of Ms. Janet Murphy appears in the Appendix]</t>
   </si>
   <si>
@@ -85,18 +76,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Lord</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lord. I thank you, Chairman Coffman, Ranking Member Kuster, and other distinguished members of the committee. I am pleased to be here today to discuss our recent work on VA land-use agreements. This is an important issue because the agreements, if managed properly, can help leverage VA resources and help provide needed benefits to veterans.    Today I would like to highlight the findings of our 2014 report. Briefly we looked at the reliability of VA's data on these holdings, its billing and collection process, as well as its systems for monitoring whether the agreements are up to date or have, in fact, expired. I think it is important to first point out that our findings related to the visits to the three centers are not generalizeable. Again, we visited West L.A., North Chicago, and a New York facility.    Regarding the first point, data reliability, when we started this audit, I asked my team a very simple question: Well, how many land-use agreements does VA currently have in effect? And what level of funding is associated with these agreements? And the bottom line is we had a hard time answering that very simple question. For example, we found that some agreements were not loaded into the central repository, other agreements were in the database that were actually expired and should never have been there. And it was really difficult to get full visibility over the overall number of holdings. So therefore, we questioned the reliability of the data and made some recommendations to VA to help improve that.    Regarding the second point, the billings and collection process, we found weaknesses at the three centers. In the actual billing, the bills they actually sent out, we found that VA underbilled by $300,000, which is a significant amount. We also found in other cases they didn't bill at all, the agreements had expired and private entities continued to occupy VA space, and that concerned us as well.    Finally, we found that VA needed to do a better job of monitoring the status of the agreements. They all have different terms, different conditions, they expire at different times. That would have helped them identify the one case in West L.A., where a non-profit, they simply waived a revenue of $250,000 a year because of financial hardship, even though that is not allowed by VA policy.    Again, in New York we made a site visit, we observed seven antennas on top of a facility. We said, well, whose antennas are those? And bottom line is they didn't know. They should have been receiving revenues associated with the antennas. These are all examples that underscore the importance of sound billing, effective monitoring.    In closing, it is clear VA needs to improve in all these areas. There is some good news in all of this. We made six important recommendations to the Secretary to improve the reliability of the data, the billings and collection process, their overall monitoring system. VA has embraced all six recommendations and they have given us several updates on where they are in implementing these recommendations. That is going to help strengthen the management of these expensive holdings. However, it is still too early to tell whether they are going to be successful. As you know, the devil is in the details. And we are going to continue to monitor that over the next few months. Again, once implemented, these recommendations will help ensure additional benefits are provided to needy veterans.    Chairman Coffman, other distinguished members, that concludes my testimony. I look forward to any questions you have about our report, as well as the new framework agreement which was just executed in late January. I studied that in great detail in preparation for this hearing as well.    [The prepared statement of Mr. Stephen Lord appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Coffman. Thank you. Mr. Lilley, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Lilley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lilley. Betrayed, that is exactly how the homeless veterans in Los Angeles feel when the VA leases property to private businesses, yet they remain homeless. This can not be the way our government fights for our homeless veterans and ultimately ends veterans' homelessness.    Good afternoon, Chairman Coffman, Ranking Member Kuster, and members of the committee. On behalf of our national commander, Mike Helm, and the 2.4 million members of the American Legion, I want to say thank you for the scrutiny you are applying to the mismanagement of VA's land-use agreements, specifically the issues currently being faced by the homeless veterans in the Los Angeles area.    When the 387 acres of land was donated in 1888 to the Federal Government, it was to be, quote, ``Permanently maintained as a national home for disabled vet volunteer soldiers.'' The West L.A. campus did just that until VA began closing its doors to them and allowed the private sector to lease land and buildings. The American Legion first took action in 1983, when we passed a resolution urging no part of the West L.A. VA facility be sold or otherwise transferred by the United States Government or any agency thereof.    In the 1990s, when private developers wanted to purchase the West L.A. VA and build another Century City shopping center, the American Legion reiterated our position and passed another resolution affirming that real property located at the West L.A. VA Medical Center, and elsewhere where such facilities are provided, shall be maintained to obtain the greatest benefit for care and well-being of the sick, disabled veteran population.    VA has since leased ground to private companies, yet never fully disclosed the terms of the leases or how it spends the proceeds. In their latest report on land-use agreements, GAO added that West L.A. has used a 12-acre field, Barrington Park, on VA property for recreational use without a written agreement. Meanwhile, homeless veterans sleep on skid row sidewalks, while students at one of the most exclusive schools in the country play sports on land donated specifically to permanently house former servicemembers. Not only has the land donated in 1888 been utilized for recreational use since the 1980s without a signed agreement or payments to the VA, but according to the GAO, the VA has failed to maintain reliable data on the total number of land-use agreements nor accurately estimated the revenues those agreements generated.    Currently, the American Legion supports a publicly transparent, enhanced use lease program, and believes strongly that the leasing agreements must conform to priority services that meet the needs of the veterans community. The American Legion was relieved to hear about the recent agreement between the Department of Veterans Affairs and the attorneys representing homeless veterans to turn its West Los Angeles VA campus into a facility that truly serves veterans, especially those who are homeless, severely disabled or elderly.    We have grimaced for many years over the irony of a once-thriving veterans campus surrounded by the largest population of homeless veterans in America. We were also pleased about the short timelines agreed to for developing a written plan to help end veteran homelessness in greater Los Angeles, and to develop a new long-term Master Plan for the future use of the West Los Angeles campus. The American Legion expects to be actively involved in providing inputs into the Master Plan, and will continue monitoring West L.A. to ensure the correct changes are being made. Ultimately, we want VA to make good on their promise to functionally eliminate veterans' homelessness, but this will not be possible as long as the largest population of homeless veterans in America is not addressed.    The American Legion thanks the committee for their close attention to the problems veterans face, among them, homelessness. We want you to know that we remain deeply committee to ensuring that the scourge of veteran homeless has ended.</t>
   </si>
   <si>
@@ -121,9 +106,6 @@
     <t xml:space="preserve">    Ms. Murphy. I would refer that question to my colleague, Dr. McDougall.</t>
   </si>
   <si>
-    <t>McDougall</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. McDougall. No, the VA has no intention at this point of resuming construction. That will, again, be looked at as part of the Master Planning process.</t>
   </si>
   <si>
@@ -187,9 +169,6 @@
     <t>412436</t>
   </si>
   <si>
-    <t>Dan Benishek</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Benishek. Thank you, Mr. Chairman.    So Dr. McDougall, you are new on the job, right? January you said?</t>
   </si>
   <si>
@@ -289,9 +268,6 @@
     <t xml:space="preserve">    Mr. Coffman. Thank you, Dr. Benishek. Mr. O'Rourke, you have 5 minutes.</t>
   </si>
   <si>
-    <t>O'Rourke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman. For Mr. Lord, the $300,000 underbilled that you referred to, that was in West </t>
   </si>
   <si>
@@ -341,9 +317,6 @@
   </si>
   <si>
     <t>412538</t>
-  </si>
-  <si>
-    <t>Jackie Walorski</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Walorski. Thank you, Mr. Chairman. Ms. Murphy, the original transfer of property on which the West L.A. VA center sits was intended to House veterans. How many veterans are being housed in that West L.A. campus? I don't mean the ones who are patients at the hospital or treatment facility, but how many homeless veterans are being housed at that facility overall?</t>
@@ -1003,11 +976,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1027,13 +998,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1055,11 +1024,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1079,13 +1046,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1107,11 +1072,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1131,13 +1094,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1159,11 +1120,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1183,13 +1142,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1211,11 +1168,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1237,11 +1192,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1261,13 +1214,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1289,11 +1240,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1313,13 +1262,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1341,11 +1288,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1365,13 +1310,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1391,13 +1334,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1419,11 +1360,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1443,13 +1382,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1471,11 +1408,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1495,13 +1430,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1523,11 +1456,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1547,13 +1478,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1575,11 +1504,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1599,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1625,13 +1550,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1651,13 +1574,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1677,13 +1598,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1703,13 +1622,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1729,13 +1646,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1755,13 +1670,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1781,13 +1694,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1807,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1833,13 +1742,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1859,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1887,11 +1792,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1911,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
-      </c>
-      <c r="G37" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1937,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1963,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1989,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2015,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
-      </c>
-      <c r="G41" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2041,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2067,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2093,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2119,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2145,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
-      </c>
-      <c r="G46" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2171,13 +2054,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2197,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
-      </c>
-      <c r="G48" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2223,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2249,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>56</v>
-      </c>
-      <c r="G50" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2275,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2301,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>56</v>
-      </c>
-      <c r="G52" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2327,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2353,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>56</v>
-      </c>
-      <c r="G54" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2379,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2405,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>56</v>
-      </c>
-      <c r="G56" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2431,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2457,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>56</v>
-      </c>
-      <c r="G58" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2483,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2509,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>56</v>
-      </c>
-      <c r="G60" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2535,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2561,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>56</v>
-      </c>
-      <c r="G62" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2587,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2613,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>56</v>
-      </c>
-      <c r="G64" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2639,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2665,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>56</v>
-      </c>
-      <c r="G66" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2691,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2717,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>56</v>
-      </c>
-      <c r="G68" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2745,11 +2584,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2769,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" t="s">
-        <v>91</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2795,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2821,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" t="s">
-        <v>91</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2847,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2873,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" t="s">
-        <v>91</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2899,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2925,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" t="s">
-        <v>91</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2951,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2977,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" t="s">
-        <v>91</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3003,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3029,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" t="s">
-        <v>91</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3055,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3081,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" t="s">
-        <v>91</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3107,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3133,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" t="s">
-        <v>91</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3161,11 +2968,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3185,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>108</v>
-      </c>
-      <c r="G86" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3211,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3237,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>108</v>
-      </c>
-      <c r="G88" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3263,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3289,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>108</v>
-      </c>
-      <c r="G90" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3315,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G91" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3341,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>108</v>
-      </c>
-      <c r="G92" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3367,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3393,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>108</v>
-      </c>
-      <c r="G94" t="s">
+        <v>100</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
         <v>109</v>
-      </c>
-      <c r="H94" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3419,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3445,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>108</v>
-      </c>
-      <c r="G96" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3471,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3497,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>108</v>
-      </c>
-      <c r="G98" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3523,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3549,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>108</v>
-      </c>
-      <c r="G100" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3575,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3601,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>108</v>
-      </c>
-      <c r="G102" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3627,13 +3398,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>22</v>
-      </c>
-      <c r="G103" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3653,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>108</v>
-      </c>
-      <c r="G104" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3679,13 +3446,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>22</v>
-      </c>
-      <c r="G105" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3705,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>108</v>
-      </c>
-      <c r="G106" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3731,13 +3494,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>22</v>
-      </c>
-      <c r="G107" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3757,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>108</v>
-      </c>
-      <c r="G108" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3783,13 +3542,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>22</v>
-      </c>
-      <c r="G109" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3809,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>108</v>
-      </c>
-      <c r="G110" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3837,11 +3592,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3861,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3889,11 +3640,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3913,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>22</v>
-      </c>
-      <c r="G114" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3941,11 +3688,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3965,13 +3710,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3993,11 +3736,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4017,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4045,11 +3784,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4069,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4097,11 +3832,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>12</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4121,13 +3854,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4147,13 +3878,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4173,13 +3902,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4199,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4227,11 +3952,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4251,13 +3974,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>108</v>
-      </c>
-      <c r="G127" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4277,13 +3998,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4303,13 +4022,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>108</v>
-      </c>
-      <c r="G129" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4329,13 +4046,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4355,13 +4070,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>108</v>
-      </c>
-      <c r="G131" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4381,13 +4094,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4407,13 +4118,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>108</v>
-      </c>
-      <c r="G133" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4433,13 +4142,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>18</v>
-      </c>
-      <c r="G134" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4459,13 +4166,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>108</v>
-      </c>
-      <c r="G135" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4485,13 +4190,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>18</v>
-      </c>
-      <c r="G136" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4511,13 +4214,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>108</v>
-      </c>
-      <c r="G137" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4537,13 +4238,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>22</v>
-      </c>
-      <c r="G138" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4563,13 +4262,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>108</v>
-      </c>
-      <c r="G139" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4589,13 +4286,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>22</v>
-      </c>
-      <c r="G140" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4615,13 +4310,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>108</v>
-      </c>
-      <c r="G141" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4641,13 +4334,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>22</v>
-      </c>
-      <c r="G142" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4667,13 +4358,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>108</v>
-      </c>
-      <c r="G143" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4693,13 +4382,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>22</v>
-      </c>
-      <c r="G144" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4719,13 +4406,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>108</v>
-      </c>
-      <c r="G145" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4747,11 +4432,9 @@
       <c r="F146" t="s">
         <v>11</v>
       </c>
-      <c r="G146" t="s">
-        <v>12</v>
-      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4771,13 +4454,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>22</v>
-      </c>
-      <c r="G147" t="s">
-        <v>91</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4797,13 +4478,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>18</v>
-      </c>
-      <c r="G148" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4823,13 +4502,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>22</v>
-      </c>
-      <c r="G149" t="s">
-        <v>91</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4849,13 +4526,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
-      </c>
-      <c r="G150" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4875,13 +4550,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>22</v>
-      </c>
-      <c r="G151" t="s">
-        <v>91</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4901,13 +4574,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4927,13 +4598,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>22</v>
-      </c>
-      <c r="G153" t="s">
-        <v>91</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4953,13 +4622,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
-      </c>
-      <c r="G154" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4979,13 +4646,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>22</v>
-      </c>
-      <c r="G155" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5005,13 +4670,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>22</v>
-      </c>
-      <c r="G156" t="s">
-        <v>91</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5033,11 +4696,9 @@
       <c r="F157" t="s">
         <v>11</v>
       </c>
-      <c r="G157" t="s">
-        <v>12</v>
-      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5057,13 +4718,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
-      </c>
-      <c r="G158" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5085,11 +4744,9 @@
       <c r="F159" t="s">
         <v>11</v>
       </c>
-      <c r="G159" t="s">
-        <v>12</v>
-      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5109,13 +4766,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>22</v>
-      </c>
-      <c r="G160" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5137,11 +4792,9 @@
       <c r="F161" t="s">
         <v>11</v>
       </c>
-      <c r="G161" t="s">
-        <v>12</v>
-      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5161,13 +4814,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>22</v>
-      </c>
-      <c r="G162" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5189,11 +4840,9 @@
       <c r="F163" t="s">
         <v>11</v>
       </c>
-      <c r="G163" t="s">
-        <v>12</v>
-      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5213,13 +4862,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>22</v>
-      </c>
-      <c r="G164" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5241,11 +4888,9 @@
       <c r="F165" t="s">
         <v>11</v>
       </c>
-      <c r="G165" t="s">
-        <v>12</v>
-      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5265,13 +4910,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>22</v>
-      </c>
-      <c r="G166" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5293,11 +4936,9 @@
       <c r="F167" t="s">
         <v>11</v>
       </c>
-      <c r="G167" t="s">
-        <v>12</v>
-      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5317,13 +4958,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5343,13 +4982,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>22</v>
-      </c>
-      <c r="G169" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5371,11 +5008,9 @@
       <c r="F170" t="s">
         <v>11</v>
       </c>
-      <c r="G170" t="s">
-        <v>12</v>
-      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5395,13 +5030,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>14</v>
-      </c>
-      <c r="G171" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5423,11 +5056,9 @@
       <c r="F172" t="s">
         <v>11</v>
       </c>
-      <c r="G172" t="s">
-        <v>12</v>
-      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98569.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98569.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412271</t>
   </si>
   <si>
+    <t>Coffman</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Coffman. Good afternoon, the hearing will come to order. I want to welcome everyone to today's hearing entitled An Examination of Waste and Abuse Associated With VA's Management of Land-Use Agreements. Before we begin, I would like to ask unanimous consent that the Honorable Tim Walz from the State of Minnesota be allowed to join us on today's hearing. Where is Tim? He is not here. He is not here yet. No objection, I hope.    He is set to be redesignated as a member of this subcommittee tomorrow, so I doubt anyone will have any objection.    Hearing none, so ordered.    The hearing will address serious problems with VA's billing and collection practices regarding its land-use agreements at VA medical centers, which were substantiated by the GAO. These deficiencies continue to result in an extreme loss of income, waste of taxpayer money, and compromised services provided to veterans. The primary focus of the hearing will be on issues occurring at the West Los Angeles VA Medical Center, including land-use agreements, problems faced by homeless veterans in the area, and other issues affecting quality of care. The shortcomings associated with VA's management in West Los Angeles are many. There have been multiple embezzlement investigations involving the facility over the last few years, at least one of which amounted to a guilty plea involving the theft of over $680,000.    One additional such investigation is ongoing and is being addressed by the VA inspector general, and the Department of Justice. The nature of land-use agreements in West Los Angeles also produces cause for concern. For instance, the facility has agreements with university sports teams, hotel laundry facilities and even a rare bird sanctuary. Considering this land was given to the Federal Government specifically to house veterans, VA is violating the terms of the original bequest. Notably, a Federal district court in California ruled in 2013 that many of the facility's non-healthcare related agreements were void because the court stated agreements of that sort that did not provide for sharing of healthcare resources result in lost access to space and opportunities that benefit veterans. On January 27, 2015, the day we informed VA of this hearing, the parties agreed to settle the appeal of the court's decision.    Based on the framework of this settlement, it does not appear that there is any impediment VA faces which would discourage its continued misuse of the property. In the framework, VA states that it will not complete a Master Plan to restructure the West L.A. property until October 15, 2015, which will require vigilant oversight considering past efforts to create such a Master Plan have largely failed. Many similar stories of waste and misuse of property set aside to help veterans, as well as other compromised services that inevitably occur due to facility mismanagement, will be discussed today regarding West Los Angeles, New York City and North Chicago, which were the sites GAO focused on in the audit. We will hear from GAO, as well as from the American Legion, which has raised concerns with problems occurring in West Los Angeles, primarily the growing homeless veteran population that is an unfortunate and unnecessary byproduct of the VA's mismanagement of property entrusted to veterans.    I look forward to hearing from these witnesses as well as from the VA so that we can get to the bottom of this issue and look for solutions to better serve our Nation's veterans. With that, I now recognize Ranking Member Kuster for her opening statement.    [The prepared statement of Chairman Mike Coffman appears in the Appendix]     OPENING STATEMENT OF RANKING MEMBER ANN McLANE KUSTER</t>
   </si>
   <si>
     <t>412557</t>
   </si>
   <si>
+    <t>Kuster</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Kuster. Thank you, Mr. Chairman. This afternoon the Subcommittee on Oversight and Investigations will be looking into VA practices regarding land-use agreements and a report from the Government Accountability Office from August of last year.    This is my first hearing as ranking member of this subcommittee, one of the most important subcommittees in Congress. And I look forward to working with Chairman Coffman and with all of my colleagues.    Our efforts to identify where problems exist at the VA could not be more important or more timely. But we must also remember that our responsibility is not only to identify problems, but to work to find solutions. This means all of us, the VA, outside agencies, such as the GAO, veterans, including our friends at the VSOs, must work together to ensure the highest quality of care is being delivered to our veterans.    Today's hearing is about an issue we face time and again: How can we ensure that the information and data collected by the VA is, in the words of the GAO, accurate, valid, and complete? How can we ensure that there are processes in place that provide the necessary level of accountability, while ensuring that the job of the VA, namely to care for our veterans, gets done? This can, perhaps, be best summed up in the title of the GAO's testimony, Improved Data Reliability and Monitoring Needed for the Department of Veterans Affairs. The question we must ask in terms of monitoring and accountability is how much management control should be exercised centrally or delegated locally?    We will not arrive at the answers to these questions today, but I am hopeful that the beginning of this discussion will lead us to solutions that we can all agree on. Solutions that ensure the proper level of accountability and management control, while remaining flexible enough not to hinder the VA's ability to accomplish its mission. This will take real leadership on behalf of the VA and all of us here in this room today.    The VA's transition from inpatient services to increased outpatient services has meant that VA's real estate portfolio contains many aging facilities, and far too much underutilized space. This was first pointed out many years ago. In fact, a June 2012 GAO report found that the VA had made progress in this area, though reducing the number of underutilized facilities in part through land-use agreements.    The VA is not alone in facing real challenges in property management. The GAO has included property management on its high-risk list since 2003. The GAO looked at three VA sites: North Chicago, New York City, and West Los Angeles, and found that its review raised questions regarding reliability of data in VA's capital asset inventory system, as well as lack of oversight and communication regarding billing, collecting, and contracting. Far too often at the three sites looked at by GAO, VA improperly paid for services it did not receive, and failed to collect what it was owed. That is why it is crucial to have this discussion this afternoon to learn about the GAO's findings and the steps that the VA has taken to address these problems. I look forward to hearing about future efforts to strengthen the management, oversight, and use of land-use agreements.    Going back to the 2012 GAO report, how much confidence should we have that using land-use agreements is an effective tool in managed underutilized space, and so we can increase the amount of benefits and services being provided to our veterans? If the VA is to provide the highest level of benefits and services to veterans in the most efficient manner, land-use agreements may, indeed, be an important tool in VA's tool chest, but only if the data is reliable and there is real oversight within VA to make sure that VA is properly benefiting from these agreements.    Finally, I look forward to discussing the recent agreement regarding West Los Angeles. As the American Legion points out in testimony today, for far too long the needs of veterans were not always the highest priority when it came to agreements between the VA and non-VA entities. This practice runs counter to the terms of the original deed, as pointed out by our chair. The agreement regarding the parties in Valentini v. McDonald is a way forward, but there are milestones that need to be met, and we will need to make sure that this committee is a full partner in the progress made in meeting those steps.    Thank you Mr. Chair, I yield back.    [The prepared statement of Ranking Member Ann Kuster appears in the Appendix]</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>400285</t>
   </si>
   <si>
+    <t>Murphy</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Murphy. Good afternoon, Chairman Coffman and Ranking Member Kuster, and members of the subcommittee. Thank you for the opportunity to discuss the VA's billing and collection practices regarding our land-use agreements. As you mentioned, sir, I am here with Dr. Skye McDougall, who is the Network Director for VISN 22.    The Department of Veterans Affairs owns and leases real property in hundreds of communities across the United States and overseas. And currently, VA manages over 174 million square feet of space, approximately 151 million owned square feet, and 23 million leased square feet of building assets. A very large footprint indeed. Unlike many Federal agencies, VA owns 87 percent of its square footage, which means that real estate plays a very important role in our overall asset management strategy.    To manage these properties, the VA uses land-use authorities that allow VA to enter into various types of agreements for the use of its property in exchange for revenues or in-kind considerations. We at VHA value and appreciate the GAO's recent insights and findings into VA's land-use agreement procedures. We acknowledge the noted deficiencies and recognize that there are many needed improvements to the design, implementation, and oversight of the VA land-use program.    The GAO recently examined our land-use program, specifically our sharing agreements. They looked into three medical centers that Ranking Member Kuster mentioned and made recommendations for improvements at each site.    At VA medical centers in North Chicago and New York, new collaborative processes have been established to improve billing and collection procedures. The GAO also recommended that VHA develop a plan for West Los Angeles Medical Center that identifies steps to be taken, timelines and responsibilities in implementing segregation of duties over the billing and collection processes.    The VA greater Los Angeles asset management office and fiscal service recently collaborated with VISN 22 and the network contracting office to finalize the standard operating procedure for the West Los Angeles Medical Center's billing and collection process. This SOP clearly defines duties related to billing and collections for land-use agreements.    A follow-up audit of the SOP will be conducted by VISN 22 financial quality assurance management staff in April of this year.    In addition, VA is considering other system-wide improvements for land-use agreements. These include establishing a better set of administrative tools for the field to use in managing these complex agreements and processes. The VHA's chief financial officer will conduct recurring independent reviews of our billing and collection processes to ensure a better separation of duties.    And finally, we are developing a standardized implementation and monitoring tool for land-use agreements that will also include reviews of land-use agreements during our normal capital program reviews. We are updating our land-use handbook with feedback from the GAO, and also instituting mandatory training for those who manage land-use agreements. I also might add for leaders who have land-use agreements in their areas will also receive this training. These actions are an example of VHA's commitment to improving the management of our land-use agreements. We are making progress to solidify our policies and taking actions to implement the GAO's recommendations.    I am also pleased to share that Secretary McDonald and attorneys representing homeless veterans in Los Angeles announced an agreement that dedicates the West Los Angeles campus to better serve veterans. This agreement commits the Department to design a plan to help end homelessness among veterans in Los Angeles County. Under this agreement, Secretary McDonald will launch an accelerated process to develop a new long-term Master Plan. The Master Plan will prioritize the provision of bridge housing and permanent supportive housing. It will also describe an exit strategy for third-party land-use agreements that do not comply with the applicable laws and do not fit the Master Plan.    In conclusion, Mr. Chairman, VA has a complex and diverse real estate portfolio. We seek to leverage our portfolio optimally to provide quality care and services to our veterans. We will correct the deficiencies in our oversight and management of our land-use agreements. I thank you for the opportunity to discuss this issue. And at this time my colleague and I prepared to answer any questions you may have. Thank you.    [The prepared statement of Ms. Janet Murphy appears in the Appendix]</t>
   </si>
   <si>
@@ -76,12 +97,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Lord</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lord. I thank you, Chairman Coffman, Ranking Member Kuster, and other distinguished members of the committee. I am pleased to be here today to discuss our recent work on VA land-use agreements. This is an important issue because the agreements, if managed properly, can help leverage VA resources and help provide needed benefits to veterans.    Today I would like to highlight the findings of our 2014 report. Briefly we looked at the reliability of VA's data on these holdings, its billing and collection process, as well as its systems for monitoring whether the agreements are up to date or have, in fact, expired. I think it is important to first point out that our findings related to the visits to the three centers are not generalizeable. Again, we visited West L.A., North Chicago, and a New York facility.    Regarding the first point, data reliability, when we started this audit, I asked my team a very simple question: Well, how many land-use agreements does VA currently have in effect? And what level of funding is associated with these agreements? And the bottom line is we had a hard time answering that very simple question. For example, we found that some agreements were not loaded into the central repository, other agreements were in the database that were actually expired and should never have been there. And it was really difficult to get full visibility over the overall number of holdings. So therefore, we questioned the reliability of the data and made some recommendations to VA to help improve that.    Regarding the second point, the billings and collection process, we found weaknesses at the three centers. In the actual billing, the bills they actually sent out, we found that VA underbilled by $300,000, which is a significant amount. We also found in other cases they didn't bill at all, the agreements had expired and private entities continued to occupy VA space, and that concerned us as well.    Finally, we found that VA needed to do a better job of monitoring the status of the agreements. They all have different terms, different conditions, they expire at different times. That would have helped them identify the one case in West L.A., where a non-profit, they simply waived a revenue of $250,000 a year because of financial hardship, even though that is not allowed by VA policy.    Again, in New York we made a site visit, we observed seven antennas on top of a facility. We said, well, whose antennas are those? And bottom line is they didn't know. They should have been receiving revenues associated with the antennas. These are all examples that underscore the importance of sound billing, effective monitoring.    In closing, it is clear VA needs to improve in all these areas. There is some good news in all of this. We made six important recommendations to the Secretary to improve the reliability of the data, the billings and collection process, their overall monitoring system. VA has embraced all six recommendations and they have given us several updates on where they are in implementing these recommendations. That is going to help strengthen the management of these expensive holdings. However, it is still too early to tell whether they are going to be successful. As you know, the devil is in the details. And we are going to continue to monitor that over the next few months. Again, once implemented, these recommendations will help ensure additional benefits are provided to needy veterans.    Chairman Coffman, other distinguished members, that concludes my testimony. I look forward to any questions you have about our report, as well as the new framework agreement which was just executed in late January. I studied that in great detail in preparation for this hearing as well.    [The prepared statement of Mr. Stephen Lord appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Coffman. Thank you. Mr. Lilley, you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Lilley</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lilley. Betrayed, that is exactly how the homeless veterans in Los Angeles feel when the VA leases property to private businesses, yet they remain homeless. This can not be the way our government fights for our homeless veterans and ultimately ends veterans' homelessness.    Good afternoon, Chairman Coffman, Ranking Member Kuster, and members of the committee. On behalf of our national commander, Mike Helm, and the 2.4 million members of the American Legion, I want to say thank you for the scrutiny you are applying to the mismanagement of VA's land-use agreements, specifically the issues currently being faced by the homeless veterans in the Los Angeles area.    When the 387 acres of land was donated in 1888 to the Federal Government, it was to be, quote, ``Permanently maintained as a national home for disabled vet volunteer soldiers.'' The West L.A. campus did just that until VA began closing its doors to them and allowed the private sector to lease land and buildings. The American Legion first took action in 1983, when we passed a resolution urging no part of the West L.A. VA facility be sold or otherwise transferred by the United States Government or any agency thereof.    In the 1990s, when private developers wanted to purchase the West L.A. VA and build another Century City shopping center, the American Legion reiterated our position and passed another resolution affirming that real property located at the West L.A. VA Medical Center, and elsewhere where such facilities are provided, shall be maintained to obtain the greatest benefit for care and well-being of the sick, disabled veteran population.    VA has since leased ground to private companies, yet never fully disclosed the terms of the leases or how it spends the proceeds. In their latest report on land-use agreements, GAO added that West L.A. has used a 12-acre field, Barrington Park, on VA property for recreational use without a written agreement. Meanwhile, homeless veterans sleep on skid row sidewalks, while students at one of the most exclusive schools in the country play sports on land donated specifically to permanently house former servicemembers. Not only has the land donated in 1888 been utilized for recreational use since the 1980s without a signed agreement or payments to the VA, but according to the GAO, the VA has failed to maintain reliable data on the total number of land-use agreements nor accurately estimated the revenues those agreements generated.    Currently, the American Legion supports a publicly transparent, enhanced use lease program, and believes strongly that the leasing agreements must conform to priority services that meet the needs of the veterans community. The American Legion was relieved to hear about the recent agreement between the Department of Veterans Affairs and the attorneys representing homeless veterans to turn its West Los Angeles VA campus into a facility that truly serves veterans, especially those who are homeless, severely disabled or elderly.    We have grimaced for many years over the irony of a once-thriving veterans campus surrounded by the largest population of homeless veterans in America. We were also pleased about the short timelines agreed to for developing a written plan to help end veteran homelessness in greater Los Angeles, and to develop a new long-term Master Plan for the future use of the West Los Angeles campus. The American Legion expects to be actively involved in providing inputs into the Master Plan, and will continue monitoring West L.A. to ensure the correct changes are being made. Ultimately, we want VA to make good on their promise to functionally eliminate veterans' homelessness, but this will not be possible as long as the largest population of homeless veterans in America is not addressed.    The American Legion thanks the committee for their close attention to the problems veterans face, among them, homelessness. We want you to know that we remain deeply committee to ensuring that the scourge of veteran homeless has ended.</t>
   </si>
   <si>
@@ -106,6 +133,9 @@
     <t xml:space="preserve">    Ms. Murphy. I would refer that question to my colleague, Dr. McDougall.</t>
   </si>
   <si>
+    <t>McDougall</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. McDougall. No, the VA has no intention at this point of resuming construction. That will, again, be looked at as part of the Master Planning process.</t>
   </si>
   <si>
@@ -169,6 +199,12 @@
     <t>412436</t>
   </si>
   <si>
+    <t>Benishek</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Benishek. Thank you, Mr. Chairman.    So Dr. McDougall, you are new on the job, right? January you said?</t>
   </si>
   <si>
@@ -268,6 +304,9 @@
     <t xml:space="preserve">    Mr. Coffman. Thank you, Dr. Benishek. Mr. O'Rourke, you have 5 minutes.</t>
   </si>
   <si>
+    <t>O'Rourke</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman. For Mr. Lord, the $300,000 underbilled that you referred to, that was in West </t>
   </si>
   <si>
@@ -317,6 +356,12 @@
   </si>
   <si>
     <t>412538</t>
+  </si>
+  <si>
+    <t>Walorski</t>
+  </si>
+  <si>
+    <t>Jackie</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Walorski. Thank you, Mr. Chairman. Ms. Murphy, the original transfer of property on which the West L.A. VA center sits was intended to House veterans. How many veterans are being housed in that West L.A. campus? I don't mean the ones who are patients at the hospital or treatment facility, but how many homeless veterans are being housed at that facility overall?</t>
@@ -926,7 +971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H172"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -934,7 +979,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -956,4109 +1001,4847 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
+      <c r="H12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G37" t="s">
+        <v>61</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G39" t="s">
+        <v>61</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
       <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G41" t="s">
+        <v>61</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
       <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G44" t="s">
+        <v>61</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G45" t="s">
+        <v>39</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G46" t="s">
+        <v>61</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>39</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G48" t="s">
+        <v>61</v>
+      </c>
       <c r="H48" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G50" t="s">
+        <v>61</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>50</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G52" t="s">
+        <v>61</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G53" t="s">
+        <v>39</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>50</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G54" t="s">
+        <v>61</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>50</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G56" t="s">
+        <v>61</v>
+      </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s">
+        <v>39</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>50</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G58" t="s">
+        <v>61</v>
+      </c>
       <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>22</v>
+      </c>
       <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>50</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G60" t="s">
+        <v>61</v>
+      </c>
       <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>22</v>
+      </c>
       <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>50</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G62" t="s">
+        <v>61</v>
+      </c>
       <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>50</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G64" t="s">
+        <v>61</v>
+      </c>
       <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G65" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>50</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G66" t="s">
+        <v>61</v>
+      </c>
       <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G67" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>50</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G68" t="s">
+        <v>61</v>
+      </c>
       <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G70" t="s">
+        <v>96</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G71" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G72" t="s">
+        <v>96</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G73" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G74" t="s">
+        <v>96</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G76" t="s">
+        <v>96</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G77" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G78" t="s">
+        <v>96</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>22</v>
+      </c>
       <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G80" t="s">
+        <v>96</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>22</v>
+      </c>
       <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
+        <v>26</v>
+      </c>
+      <c r="G82" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G83" t="s">
+        <v>30</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G84" t="s">
+        <v>96</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
       <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>100</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G86" t="s">
+        <v>114</v>
+      </c>
       <c r="H86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G87" t="s">
+        <v>22</v>
+      </c>
       <c r="H87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I87" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>100</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G88" t="s">
+        <v>114</v>
+      </c>
       <c r="H88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>19</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G89" t="s">
+        <v>39</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>100</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G90" t="s">
+        <v>114</v>
+      </c>
       <c r="H90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I90" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G91" t="s">
+        <v>39</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>100</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G92" t="s">
+        <v>114</v>
+      </c>
       <c r="H92" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>19</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G93" t="s">
+        <v>39</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>100</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G94" t="s">
+        <v>114</v>
+      </c>
       <c r="H94" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I94" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>19</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G95" t="s">
+        <v>39</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>100</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G96" t="s">
+        <v>114</v>
+      </c>
       <c r="H96" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I96" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G97" t="s">
+        <v>39</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>100</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G98" t="s">
+        <v>114</v>
+      </c>
       <c r="H98" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I98" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>19</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G99" t="s">
+        <v>39</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>100</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G100" t="s">
+        <v>114</v>
+      </c>
       <c r="H100" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>19</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G101" t="s">
+        <v>39</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>100</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G102" t="s">
+        <v>114</v>
+      </c>
       <c r="H102" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I102" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>19</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G103" t="s">
+        <v>39</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>100</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G104" t="s">
+        <v>114</v>
+      </c>
       <c r="H104" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>19</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G105" t="s">
+        <v>39</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>100</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G106" t="s">
+        <v>114</v>
+      </c>
       <c r="H106" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I106" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G107" t="s">
+        <v>39</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>100</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G108" t="s">
+        <v>114</v>
+      </c>
       <c r="H108" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I108" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>19</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G109" t="s">
+        <v>39</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>100</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G110" t="s">
+        <v>114</v>
+      </c>
       <c r="H110" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I110" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
       <c r="H111" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G112" t="s">
+        <v>22</v>
+      </c>
       <c r="H112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I112" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
       <c r="H113" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>19</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G114" t="s">
+        <v>30</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
       <c r="H115" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G116" t="s">
+        <v>22</v>
+      </c>
       <c r="H116" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I116" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
       <c r="H117" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G118" t="s">
+        <v>22</v>
+      </c>
       <c r="H118" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I118" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
       <c r="H119" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G120" t="s">
+        <v>22</v>
+      </c>
       <c r="H120" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I120" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>13</v>
+      </c>
       <c r="H121" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>17</v>
+      </c>
       <c r="H122" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I122" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G123" t="s">
+        <v>22</v>
+      </c>
       <c r="H123" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I123" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>22</v>
+      </c>
       <c r="H124" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I124" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>17</v>
+      </c>
       <c r="H125" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I125" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
       <c r="H126" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>100</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G127" t="s">
+        <v>114</v>
+      </c>
       <c r="H127" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I127" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G128" t="s">
+        <v>22</v>
+      </c>
       <c r="H128" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I128" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>100</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G129" t="s">
+        <v>114</v>
+      </c>
       <c r="H129" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I129" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G130" t="s">
+        <v>22</v>
+      </c>
       <c r="H130" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I130" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>100</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G131" t="s">
+        <v>114</v>
+      </c>
       <c r="H131" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I131" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G132" t="s">
+        <v>22</v>
+      </c>
       <c r="H132" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I132" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>100</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G133" t="s">
+        <v>114</v>
+      </c>
       <c r="H133" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I133" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>16</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G134" t="s">
+        <v>22</v>
+      </c>
       <c r="H134" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I134" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>100</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G135" t="s">
+        <v>114</v>
+      </c>
       <c r="H135" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I135" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>16</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G136" t="s">
+        <v>22</v>
+      </c>
       <c r="H136" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I136" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>100</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G137" t="s">
+        <v>114</v>
+      </c>
       <c r="H137" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I137" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>19</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G138" t="s">
+        <v>39</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>100</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G139" t="s">
+        <v>114</v>
+      </c>
       <c r="H139" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I139" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>19</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G140" t="s">
+        <v>39</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>100</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G141" t="s">
+        <v>114</v>
+      </c>
       <c r="H141" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I141" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>19</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G142" t="s">
+        <v>39</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>100</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G143" t="s">
+        <v>114</v>
+      </c>
       <c r="H143" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I143" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>19</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G144" t="s">
+        <v>39</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>100</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G145" t="s">
+        <v>114</v>
+      </c>
       <c r="H145" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I145" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G146" t="s">
+        <v>13</v>
+      </c>
       <c r="H146" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I146" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>19</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G147" t="s">
+        <v>96</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>16</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G148" t="s">
+        <v>22</v>
+      </c>
       <c r="H148" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I148" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>19</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G149" t="s">
+        <v>96</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>16</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G150" t="s">
+        <v>22</v>
+      </c>
       <c r="H150" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I150" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>19</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G151" t="s">
+        <v>96</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>16</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G152" t="s">
+        <v>22</v>
+      </c>
       <c r="H152" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I152" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>19</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G153" t="s">
+        <v>96</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>16</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G154" t="s">
+        <v>22</v>
+      </c>
       <c r="H154" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I154" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>19</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G155" t="s">
+        <v>39</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>19</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G156" t="s">
+        <v>96</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G157" t="s">
+        <v>13</v>
+      </c>
       <c r="H157" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I157" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>16</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G158" t="s">
+        <v>22</v>
+      </c>
       <c r="H158" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I158" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>11</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G159" t="s">
+        <v>13</v>
+      </c>
       <c r="H159" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I159" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>19</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G160" t="s">
+        <v>39</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G161" t="s">
+        <v>13</v>
+      </c>
       <c r="H161" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I161" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>19</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G162" t="s">
+        <v>39</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>11</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G163" t="s">
+        <v>13</v>
+      </c>
       <c r="H163" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I163" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>19</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G164" t="s">
+        <v>39</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>11</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G165" t="s">
+        <v>13</v>
+      </c>
       <c r="H165" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I165" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>19</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G166" t="s">
+        <v>39</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>11</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G167" t="s">
+        <v>13</v>
+      </c>
       <c r="H167" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I167" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>16</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G168" t="s">
+        <v>22</v>
+      </c>
       <c r="H168" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I168" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>19</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G169" t="s">
+        <v>39</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>11</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G170" t="s">
+        <v>13</v>
+      </c>
       <c r="H170" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I170" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>13</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G171" t="s">
+        <v>17</v>
+      </c>
       <c r="H171" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I171" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>11</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G172" t="s">
+        <v>13</v>
+      </c>
       <c r="H172" t="s">
-        <v>187</v>
+        <v>14</v>
+      </c>
+      <c r="I172" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98569.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98569.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412271</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Coffman</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412557</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Kuster</t>
   </si>
   <si>
@@ -197,6 +206,9 @@
   </si>
   <si>
     <t>412436</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Benishek</t>
@@ -971,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I172"/>
+  <dimension ref="A1:J172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -979,7 +991,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1004,4844 +1016,5240 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H37" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" t="s">
-        <v>39</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G39" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G40" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G41" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" t="s">
-        <v>39</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G43" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I43" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G44" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" t="s">
-        <v>39</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G46" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H46" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" t="s">
-        <v>39</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G48" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H48" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" t="s">
-        <v>39</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G50" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H50" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G52" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H52" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>26</v>
-      </c>
-      <c r="G53" t="s">
-        <v>39</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>42</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G54" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H54" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" t="s">
-        <v>30</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>33</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G56" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H56" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57" t="s">
-        <v>39</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>42</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G58" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H58" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G59" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G60" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H60" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I60" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G61" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I61" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G62" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H62" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63" t="s">
-        <v>27</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>30</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G64" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H64" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I64" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" t="s">
-        <v>27</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>30</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G66" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H66" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I66" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G67" t="s">
-        <v>27</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>30</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G68" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H68" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I68" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>26</v>
-      </c>
-      <c r="G70" t="s">
-        <v>96</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>100</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" t="s">
-        <v>27</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>30</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72" t="s">
-        <v>96</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>100</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>26</v>
-      </c>
-      <c r="G73" t="s">
-        <v>27</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>30</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" t="s">
-        <v>96</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>100</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75" t="s">
-        <v>27</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>30</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>26</v>
-      </c>
-      <c r="G76" t="s">
-        <v>96</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>100</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" t="s">
-        <v>27</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>30</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" t="s">
-        <v>96</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>100</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G79" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I79" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80" t="s">
-        <v>96</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>100</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G81" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>26</v>
-      </c>
-      <c r="G82" t="s">
-        <v>96</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>100</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" t="s">
-        <v>30</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>33</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>26</v>
-      </c>
-      <c r="G84" t="s">
-        <v>96</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>100</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G86" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="H86" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I86" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G87" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I87" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G88" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="H88" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I88" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>26</v>
-      </c>
-      <c r="G89" t="s">
-        <v>39</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>42</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G90" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I90" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G91" t="s">
-        <v>39</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>42</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G92" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="H92" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I92" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>26</v>
-      </c>
-      <c r="G93" t="s">
-        <v>39</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>42</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G94" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="H94" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I94" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J94" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" t="s">
-        <v>39</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>42</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G96" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="H96" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I96" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J96" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>26</v>
-      </c>
-      <c r="G97" t="s">
-        <v>39</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>42</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G98" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="H98" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I98" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99" t="s">
-        <v>39</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>42</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G100" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="H100" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I100" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J100" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>26</v>
-      </c>
-      <c r="G101" t="s">
-        <v>39</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>42</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G102" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="H102" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I102" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J102" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>26</v>
-      </c>
-      <c r="G103" t="s">
-        <v>39</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>42</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G104" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="H104" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I104" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>26</v>
-      </c>
-      <c r="G105" t="s">
-        <v>39</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>42</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G106" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="H106" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I106" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J106" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>26</v>
-      </c>
-      <c r="G107" t="s">
-        <v>39</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>42</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G108" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="H108" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I108" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J108" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>26</v>
-      </c>
-      <c r="G109" t="s">
-        <v>39</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>42</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G110" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="H110" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I110" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J110" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I111" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J111" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G112" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I112" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J112" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I113" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J113" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>26</v>
-      </c>
-      <c r="G114" t="s">
-        <v>30</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>33</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I115" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G116" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I116" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J116" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I117" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G118" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I118" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J118" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I119" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J119" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G120" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I120" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J120" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I121" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J121" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G122" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H122" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I122" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J122" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G123" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I123" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J123" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G124" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I124" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J124" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G125" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H125" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I125" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J125" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I126" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J126" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G127" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="H127" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I127" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J127" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G128" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I128" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J128" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G129" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="H129" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I129" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J129" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G130" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I130" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J130" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G131" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="H131" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I131" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G132" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I132" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J132" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G133" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="H133" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I133" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J133" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G134" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I134" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J134" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G135" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="H135" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I135" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J135" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G136" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I136" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J136" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G137" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="H137" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I137" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J137" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>26</v>
-      </c>
-      <c r="G138" t="s">
-        <v>39</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>42</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G139" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="H139" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I139" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J139" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>26</v>
-      </c>
-      <c r="G140" t="s">
-        <v>39</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>42</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G141" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="H141" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I141" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J141" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>26</v>
-      </c>
-      <c r="G142" t="s">
-        <v>39</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>42</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G143" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="H143" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I143" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J143" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>26</v>
-      </c>
-      <c r="G144" t="s">
-        <v>39</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>42</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G145" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="H145" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I145" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J145" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I146" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J146" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>26</v>
-      </c>
-      <c r="G147" t="s">
-        <v>96</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>100</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G148" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I148" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J148" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>26</v>
-      </c>
-      <c r="G149" t="s">
-        <v>96</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>100</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G150" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I150" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J150" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G151" t="s">
-        <v>96</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>100</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G152" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I152" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J152" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>26</v>
-      </c>
-      <c r="G153" t="s">
-        <v>96</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>100</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G154" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I154" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J154" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>26</v>
-      </c>
-      <c r="G155" t="s">
-        <v>39</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>42</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>26</v>
-      </c>
-      <c r="G156" t="s">
-        <v>96</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>100</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I157" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J157" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G158" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I158" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J158" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I159" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J159" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>26</v>
-      </c>
-      <c r="G160" t="s">
-        <v>39</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>42</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G161" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I161" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J161" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>26</v>
-      </c>
-      <c r="G162" t="s">
-        <v>39</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>42</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I163" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J163" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>26</v>
-      </c>
-      <c r="G164" t="s">
-        <v>39</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>42</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G165" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I165" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J165" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>26</v>
-      </c>
-      <c r="G166" t="s">
-        <v>39</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>42</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G167" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I167" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J167" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G168" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H168" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I168" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J168" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>26</v>
-      </c>
-      <c r="G169" t="s">
-        <v>39</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>42</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G170" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H170" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I170" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J170" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G171" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H171" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I171" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J171" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G172" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I172" t="s">
-        <v>202</v>
+        <v>16</v>
+      </c>
+      <c r="J172" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
